--- a/LOGS/5b030195-e834-45c5-904d-85db9cab7b0e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/5b030195-e834-45c5-904d-85db9cab7b0e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="148">
   <si>
     <t>rows</t>
   </si>
@@ -131,67 +131,61 @@
     <t xml:space="preserve"> Total inventories</t>
   </si>
   <si>
-    <t>Cost or valuation At 1 January 2021 549576 3081607 66902</t>
-  </si>
-  <si>
-    <t>Cost or valuation Additions   117580</t>
-  </si>
-  <si>
-    <t>Cost or valuation Disposals  (11,852) (213)</t>
-  </si>
-  <si>
-    <t>Settlements from Auc FX Revaluation 153 444 66</t>
-  </si>
-  <si>
-    <t>Settlements from Auc At31 December 2021 571881 3124600 107782</t>
-  </si>
-  <si>
-    <t>Settlements from Auc Additions   104026</t>
-  </si>
-  <si>
-    <t>Settlements from Auc Disposals (419) (12,132) (1,263)</t>
-  </si>
-  <si>
-    <t>Settlements from Auc FX Revaluation (342) (1,020) (260)</t>
-  </si>
-  <si>
-    <t>Settlements from Auc At31 December 2022 583140 3198968 110745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation At1 January 2021 122100 1821068 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Depreciation charge for the year 18297 94666 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Disposals  (10,500) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation FX Revaluation 10 46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation At31 December 2021 140407 1905280 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Depreciation charge for the year 13194 103303 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Impairment  195424 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Disposals (398) (11,711) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation FX Revaluation (31) (116) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation At31 December 2022 153172 2192180 </t>
-  </si>
-  <si>
-    <t>Net book value At31 December 2022 429968 1006788 110745</t>
-  </si>
-  <si>
-    <t>Net book value At 31 December 2021 431474 1219320 107782</t>
+    <t>Cost or valuation At 1 January 2021</t>
+  </si>
+  <si>
+    <t>Cost or valuation Additions</t>
+  </si>
+  <si>
+    <t>Cost or valuation Disposals</t>
+  </si>
+  <si>
+    <t>Cost or valuation Settlements from Auc</t>
+  </si>
+  <si>
+    <t>Cost or valuation FX Revaluation</t>
+  </si>
+  <si>
+    <t>Cost or valuation At31 December 2021</t>
+  </si>
+  <si>
+    <t>Cost or valuation At31 December 2022</t>
+  </si>
+  <si>
+    <t>Depreciation At1 January 2021</t>
+  </si>
+  <si>
+    <t>Depreciation Depreciation charge for the year</t>
+  </si>
+  <si>
+    <t>Depreciation Disposals</t>
+  </si>
+  <si>
+    <t>Depreciation FX Revaluation</t>
+  </si>
+  <si>
+    <t>Depreciation At31 December 2021</t>
+  </si>
+  <si>
+    <t>Depreciation Impairment</t>
+  </si>
+  <si>
+    <t>Depreciation At31 December 2022</t>
+  </si>
+  <si>
+    <t>Net book value At31 December 2022</t>
+  </si>
+  <si>
+    <t>Net book value At 31 December 2021</t>
+  </si>
+  <si>
+    <t>Freehold Land &amp;Buildings $'000</t>
+  </si>
+  <si>
+    <t>Plant &amp; Machinery $'000</t>
+  </si>
+  <si>
+    <t>Assets under Construction $'000</t>
   </si>
   <si>
     <t>Other Equipment $'000</t>
@@ -200,58 +194,43 @@
     <t>Total $'000</t>
   </si>
   <si>
-    <t>Cost At 1 January 2021 96148 99365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Additions 4918 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Adjustments  </t>
-  </si>
-  <si>
-    <t>Cost FX Revaluation 19 17</t>
-  </si>
-  <si>
-    <t>Cost At31 December 2021 101085 99382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Additions 1847 </t>
-  </si>
-  <si>
-    <t>Cost FX Revaluation 7 (324)</t>
-  </si>
-  <si>
-    <t>Cost At31 December 2022 102939 99058</t>
-  </si>
-  <si>
-    <t>Cost At1 January 2021 84869 8869</t>
-  </si>
-  <si>
-    <t>Cost Amortisation 3900 10531</t>
-  </si>
-  <si>
-    <t>Adjustments FX Revaluation 17 19</t>
-  </si>
-  <si>
-    <t>Adjustments At31 December 2021 87759 20446</t>
-  </si>
-  <si>
-    <t>Adjustments Amortisation 3006 11466</t>
-  </si>
-  <si>
-    <t>Adjustments FX Revaluation 13 (55)</t>
-  </si>
-  <si>
-    <t>Adjustments At31 December 2022 90778 31857</t>
-  </si>
-  <si>
-    <t>Net book value At31 December 2022 12161 67201</t>
-  </si>
-  <si>
-    <t>Net book value At31 December 2021 13326 78936</t>
-  </si>
-  <si>
-    <t>Goodwill $'000</t>
+    <t>Cost At 1 January 2021</t>
+  </si>
+  <si>
+    <t>Cost Additions</t>
+  </si>
+  <si>
+    <t>Cost Adjustments</t>
+  </si>
+  <si>
+    <t>Cost FX Revaluation</t>
+  </si>
+  <si>
+    <t>Cost At31 December 2021</t>
+  </si>
+  <si>
+    <t>Cost At31 December 2022</t>
+  </si>
+  <si>
+    <t>Cost At1 January 2021</t>
+  </si>
+  <si>
+    <t>Cost Amortisation</t>
+  </si>
+  <si>
+    <t>Net book value At31 December 2021</t>
+  </si>
+  <si>
+    <t>Note 14. Intangible assets and Goodwill Computer Software $'000</t>
+  </si>
+  <si>
+    <t>Note 14. Intangible assets and Goodwill Other Intangible Assets $'000</t>
+  </si>
+  <si>
+    <t>Note 14. Intangible assets and Goodwill Goodwill $'000</t>
+  </si>
+  <si>
+    <t>Note 14. Intangible assets and Goodwill Total $'000</t>
   </si>
   <si>
     <t xml:space="preserve"> Defined benefit obligation</t>
@@ -305,52 +284,31 @@
     <t xml:space="preserve"> Other payables</t>
   </si>
   <si>
-    <t xml:space="preserve"> At 1 January 2022 126840 22335</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arising during the year 5545 2465</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utilised (5,005) (1,968)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unused Amounts Reversed (2,557) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At31 December 2022 124823 22832</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Current 118775 4707</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non Current 6048 18125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Benefits Environmental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $'000 $'000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At1 January 2021 123920 17224</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arising during the year 24619 5871</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utilised (21,115) (760)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unused Amounts Reversed (584) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At31 December 2021 126840 22335</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Current 115567 3707</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non Current 11273 18628</t>
+    <t xml:space="preserve"> At 1 January 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arising during the year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utilised</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unused Amounts Reversed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At31 December 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At1 January 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At31 December 2021</t>
+  </si>
+  <si>
+    <t>Employee Benefits $'000</t>
+  </si>
+  <si>
+    <t>Environmental $'000</t>
   </si>
   <si>
     <t>Other $'000</t>
@@ -1099,7 +1057,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1113,7 +1071,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1127,7 +1085,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1141,7 +1099,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1155,7 +1113,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1169,7 +1127,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1183,7 +1141,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1197,7 +1155,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1211,7 +1169,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1225,7 +1183,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1239,7 +1197,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1253,7 +1211,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1294,7 +1252,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1308,7 +1266,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1322,7 +1280,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1336,7 +1294,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1350,7 +1308,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1364,7 +1322,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1378,7 +1336,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1392,7 +1350,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1406,7 +1364,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1420,7 +1378,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1434,7 +1392,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1448,7 +1406,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1462,7 +1420,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1476,7 +1434,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1517,10 +1475,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1531,10 +1489,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1545,10 +1503,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1559,10 +1517,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1600,7 +1558,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1614,7 +1572,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1628,7 +1586,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1656,7 +1614,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1670,7 +1628,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1684,7 +1642,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1717,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1739,87 +1697,111 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>104</v>
+      <c r="C2">
+        <v>2022</v>
       </c>
       <c r="D2">
-        <v>20861</v>
+        <v>126840</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
       </c>
       <c r="D3">
-        <v>28739</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
       </c>
       <c r="D4">
-        <v>-22729</v>
+        <v>-5005</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>-1021</v>
+        <v>-2557</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>25850</v>
+        <v>124823</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
       </c>
       <c r="D7">
-        <v>20229115</v>
+        <v>118775</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
       </c>
       <c r="D8">
-        <v>202216735</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1827,10 +1809,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1838,175 +1823,223 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>19791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
       </c>
       <c r="D12">
-        <v>4666</v>
+        <v>123920</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
       </c>
       <c r="D13">
-        <v>-2526</v>
+        <v>24619</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
       </c>
       <c r="D14">
-        <v>-1070</v>
+        <v>-21115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
       </c>
       <c r="D15">
-        <v>20861</v>
+        <v>-584</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
       </c>
       <c r="D16">
-        <v>202111502</v>
+        <v>126840</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
       </c>
       <c r="D17">
-        <v>20219359</v>
+        <v>115567</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
+      <c r="C18">
+        <v>2022</v>
       </c>
       <c r="D18">
-        <v>170036</v>
+        <v>11273</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
+      <c r="C19">
+        <v>2022</v>
       </c>
       <c r="D19">
-        <v>36749</v>
+        <v>22335</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
       </c>
       <c r="D20">
-        <v>-29702</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
       </c>
       <c r="D21">
-        <v>-3578</v>
+        <v>-1968</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
       </c>
       <c r="D22">
-        <v>173505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
       </c>
       <c r="D23">
-        <v>132597</v>
+        <v>22832</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
       </c>
       <c r="D24">
-        <v>40908</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>18125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2014,78 +2047,603 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
       </c>
       <c r="D27">
-        <v>160935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
       </c>
       <c r="D28">
-        <v>35156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>2021</v>
       </c>
       <c r="D29">
-        <v>-24401</v>
+        <v>17224</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
       </c>
       <c r="D30">
-        <v>-1654</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
       </c>
       <c r="D31">
-        <v>170036</v>
+        <v>-760</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
       </c>
       <c r="D32">
-        <v>130776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <v>2021</v>
       </c>
       <c r="D33">
+        <v>22335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
+      </c>
+      <c r="D34">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
+      </c>
+      <c r="D35">
+        <v>18628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36">
+        <v>20861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>2022</v>
+      </c>
+      <c r="D37">
+        <v>28739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>2022</v>
+      </c>
+      <c r="D38">
+        <v>-22729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39">
+        <v>-1021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>2022</v>
+      </c>
+      <c r="D40">
+        <v>25850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41">
+        <v>2022</v>
+      </c>
+      <c r="D41">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>2022</v>
+      </c>
+      <c r="D42">
+        <v>16735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>2022</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>2021</v>
+      </c>
+      <c r="D46">
+        <v>19791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48">
+        <v>-2526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49">
+        <v>-1070</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>2021</v>
+      </c>
+      <c r="D50">
+        <v>20861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53">
+        <v>170036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>36749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>2022</v>
+      </c>
+      <c r="D55">
+        <v>-29702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>2022</v>
+      </c>
+      <c r="D56">
+        <v>-3578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>2022</v>
+      </c>
+      <c r="D57">
+        <v>173505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>2022</v>
+      </c>
+      <c r="D58">
+        <v>132597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>2022</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>2022</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>2022</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>2021</v>
+      </c>
+      <c r="D63">
+        <v>160935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>2022</v>
+      </c>
+      <c r="D64">
+        <v>35156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>2022</v>
+      </c>
+      <c r="D65">
+        <v>-24401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>2022</v>
+      </c>
+      <c r="D66">
+        <v>-1654</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>2021</v>
+      </c>
+      <c r="D67">
+        <v>170036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>2022</v>
+      </c>
+      <c r="D68">
+        <v>130776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69">
         <v>39260</v>
       </c>
     </row>
@@ -2118,7 +2676,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2188,7 +2746,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2285,7 +2843,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2299,7 +2857,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2313,7 +2871,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2327,7 +2885,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2341,7 +2899,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2355,7 +2913,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2369,7 +2927,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2383,7 +2941,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2424,7 +2982,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2438,7 +2996,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2452,7 +3010,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2466,7 +3024,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2480,7 +3038,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2494,7 +3052,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2508,7 +3066,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2522,7 +3080,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2536,7 +3094,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2550,7 +3108,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2564,7 +3122,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2578,7 +3136,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -2619,7 +3177,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2633,7 +3191,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2647,7 +3205,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2661,7 +3219,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2675,7 +3233,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2689,7 +3247,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2703,7 +3261,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2717,7 +3275,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2758,7 +3316,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2772,7 +3330,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2786,7 +3344,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2800,7 +3358,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2814,7 +3372,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2828,7 +3386,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2842,7 +3400,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2856,7 +3414,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2870,7 +3428,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2884,7 +3442,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2980,7 +3538,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2994,7 +3552,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3008,7 +3566,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3022,7 +3580,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3036,7 +3594,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3050,7 +3608,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3091,7 +3649,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3105,7 +3663,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3119,7 +3677,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3133,7 +3691,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3147,7 +3705,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3161,7 +3719,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3202,7 +3760,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3216,7 +3774,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3230,7 +3788,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3244,7 +3802,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3258,7 +3816,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3272,7 +3830,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3286,7 +3844,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3300,7 +3858,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3314,7 +3872,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -3328,7 +3886,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -3342,7 +3900,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3356,7 +3914,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3370,7 +3928,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -3384,7 +3942,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -3398,7 +3956,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -3412,7 +3970,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3453,7 +4011,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3467,7 +4025,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3481,7 +4039,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3495,7 +4053,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3509,7 +4067,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3523,7 +4081,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3537,7 +4095,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3551,7 +4109,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3565,7 +4123,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -3579,7 +4137,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -3593,7 +4151,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3607,7 +4165,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3648,7 +4206,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3662,7 +4220,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3676,7 +4234,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3690,7 +4248,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3704,7 +4262,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3718,7 +4276,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3732,7 +4290,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3746,7 +4304,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3760,7 +4318,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -3774,7 +4332,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -3788,7 +4346,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3802,7 +4360,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3816,7 +4374,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -3830,7 +4388,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -3871,10 +4429,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3885,10 +4443,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3899,10 +4457,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3913,10 +4471,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3927,10 +4485,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3941,10 +4499,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3955,10 +4513,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3969,10 +4527,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3983,10 +4541,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3997,10 +4555,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -4011,10 +4569,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -4025,10 +4583,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -4039,10 +4597,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -4053,10 +4611,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -4067,10 +4625,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -4081,10 +4639,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -4095,10 +4653,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -4109,10 +4667,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -4123,10 +4681,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -4137,10 +4695,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -4151,10 +4709,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -4165,10 +4723,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -4179,10 +4737,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -4193,10 +4751,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -4207,10 +4765,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -4221,10 +4779,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -4235,10 +4793,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -4249,10 +4807,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -4263,10 +4821,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -4277,10 +4835,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -4291,10 +4849,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -4305,10 +4863,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -4319,10 +4877,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -4333,10 +4891,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -4347,10 +4905,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -4361,10 +4919,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -4402,7 +4960,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -4416,7 +4974,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5103,7 +5661,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5128,10 +5686,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
-        <v>208</v>
+        <v>549576</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5139,7 +5700,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5150,7 +5714,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5161,10 +5728,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5172,10 +5742,13 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5183,18 +5756,24 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>571881</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5202,120 +5781,153 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-419</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
       </c>
       <c r="D10">
-        <v>208</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>208</v>
+        <v>-342</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>583140</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>122100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>18297</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
       </c>
       <c r="D15">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>140407</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
+      <c r="C18">
+        <v>2022</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5323,265 +5935,1359 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
       </c>
       <c r="D20">
-        <v>208</v>
+        <v>-398</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>153172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
       </c>
       <c r="D23">
-        <v>3698293</v>
+        <v>429968</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
       </c>
       <c r="D24">
-        <v>117580</v>
+        <v>431474</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
       </c>
       <c r="D25">
-        <v>-12065</v>
+        <v>3081607</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
       </c>
       <c r="D26">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
       </c>
       <c r="D27">
-        <v>3804471</v>
+        <v>-11852</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
       </c>
       <c r="D28">
-        <v>104026</v>
+        <v>54401</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
       </c>
       <c r="D29">
-        <v>-13814</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
       </c>
       <c r="D30">
-        <v>-1622</v>
+        <v>3124600</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
       </c>
       <c r="D31">
-        <v>3893061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
       </c>
       <c r="D32">
-        <v>1943376</v>
+        <v>-12132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
       </c>
       <c r="D33">
-        <v>112963</v>
+        <v>87520</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
       </c>
       <c r="D34">
-        <v>-10500</v>
+        <v>-1020</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>3198968</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>2021</v>
       </c>
       <c r="D36">
-        <v>2045895</v>
+        <v>1821068</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>2022</v>
       </c>
       <c r="D37">
-        <v>116497</v>
+        <v>94666</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>2022</v>
       </c>
       <c r="D38">
-        <v>195424</v>
+        <v>-10500</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39">
         <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39">
-        <v>-12109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
-        <v>52</v>
+      <c r="C40">
+        <v>2021</v>
       </c>
       <c r="D40">
-        <v>-147</v>
+        <v>1905280</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>2022</v>
       </c>
       <c r="D41">
-        <v>2345560</v>
+        <v>103303</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>2022</v>
       </c>
       <c r="D42">
-        <v>1547501</v>
+        <v>195424</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>2022</v>
+      </c>
+      <c r="D43">
+        <v>-11711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <v>2192180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46">
+        <v>1006788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>2021</v>
+      </c>
+      <c r="D47">
+        <v>1219320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>66902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49">
+        <v>117580</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50">
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51">
+        <v>-76553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>2021</v>
+      </c>
+      <c r="D53">
+        <v>107782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>104026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55">
+        <v>2022</v>
+      </c>
+      <c r="D55">
+        <v>-1263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <v>2022</v>
+      </c>
+      <c r="D56">
+        <v>-99540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>2022</v>
+      </c>
+      <c r="D57">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>2022</v>
+      </c>
+      <c r="D58">
+        <v>110745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>2021</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>2022</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>2022</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>2022</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>2021</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>2022</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>2022</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>2022</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>2022</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>2022</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69">
+        <v>110745</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70">
+        <v>2021</v>
+      </c>
+      <c r="D70">
+        <v>107782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71">
+        <v>2021</v>
+      </c>
+      <c r="D71">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72">
+        <v>2022</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73">
+        <v>2022</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74">
+        <v>2022</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75">
+        <v>2022</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>2021</v>
+      </c>
+      <c r="D76">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77">
+        <v>2022</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>2022</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>2022</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80">
+        <v>2022</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <v>2022</v>
+      </c>
+      <c r="D81">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>2021</v>
+      </c>
+      <c r="D82">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83">
+        <v>2022</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>2022</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85">
+        <v>2022</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>2021</v>
+      </c>
+      <c r="D86">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87">
+        <v>2022</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>2022</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89">
+        <v>2022</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>2022</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91">
+        <v>2022</v>
+      </c>
+      <c r="D91">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92">
+        <v>2022</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93">
+        <v>2021</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43">
+      <c r="C94">
+        <v>2021</v>
+      </c>
+      <c r="D94">
+        <v>3698293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>2022</v>
+      </c>
+      <c r="D95">
+        <v>117580</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>2022</v>
+      </c>
+      <c r="D96">
+        <v>-12065</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>2022</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>2022</v>
+      </c>
+      <c r="D98">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>2021</v>
+      </c>
+      <c r="D99">
+        <v>3804471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>2022</v>
+      </c>
+      <c r="D100">
+        <v>104026</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>2022</v>
+      </c>
+      <c r="D101">
+        <v>-13814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <v>2022</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>2022</v>
+      </c>
+      <c r="D103">
+        <v>-1622</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>2022</v>
+      </c>
+      <c r="D104">
+        <v>3893061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>2021</v>
+      </c>
+      <c r="D105">
+        <v>1943376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106">
+        <v>2022</v>
+      </c>
+      <c r="D106">
+        <v>112963</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107">
+        <v>2022</v>
+      </c>
+      <c r="D107">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108">
+        <v>2022</v>
+      </c>
+      <c r="D108">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109">
+        <v>2021</v>
+      </c>
+      <c r="D109">
+        <v>2045895</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>2022</v>
+      </c>
+      <c r="D110">
+        <v>116497</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111">
+        <v>2022</v>
+      </c>
+      <c r="D111">
+        <v>195424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112">
+        <v>2022</v>
+      </c>
+      <c r="D112">
+        <v>-12109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113">
+        <v>2022</v>
+      </c>
+      <c r="D113">
+        <v>-147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>2022</v>
+      </c>
+      <c r="D114">
+        <v>2345560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>2022</v>
+      </c>
+      <c r="D115">
+        <v>1547501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116">
+        <v>2021</v>
+      </c>
+      <c r="D116">
         <v>1758576</v>
       </c>
     </row>
@@ -5592,7 +7298,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5614,375 +7320,1009 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
-        <v>126174</v>
+        <v>96148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
       </c>
       <c r="D4">
-        <v>-1777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>2817</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
       </c>
       <c r="D6">
-        <v>127214</v>
+        <v>101085</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
       </c>
       <c r="D8">
-        <v>-1051</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
+      <c r="C9">
+        <v>2022</v>
       </c>
       <c r="D9">
-        <v>126163</v>
+        <v>102939</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>84869</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-1027</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>87759</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
       </c>
       <c r="D17">
-        <v>2022126163</v>
+        <v>90778</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
       </c>
       <c r="D18">
-        <v>2021127214</v>
+        <v>12161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
       </c>
       <c r="D19">
-        <v>321687</v>
+        <v>13326</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
       </c>
       <c r="D20">
-        <v>4918</v>
+        <v>99365</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
       </c>
       <c r="D21">
-        <v>-1777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
       </c>
       <c r="D22">
-        <v>2853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
       </c>
       <c r="D23">
-        <v>327681</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
       </c>
       <c r="D24">
-        <v>1847</v>
+        <v>99382</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
       </c>
       <c r="D25">
-        <v>-1368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
       </c>
       <c r="D26">
-        <v>328160</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
+      <c r="C27">
+        <v>2022</v>
       </c>
       <c r="D27">
-        <v>93738</v>
+        <v>99058</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>2021</v>
       </c>
       <c r="D28">
-        <v>14431</v>
+        <v>8869</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
       </c>
       <c r="D30">
-        <v>108205</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
       </c>
       <c r="D31">
-        <v>14472</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>2021</v>
       </c>
       <c r="D32">
-        <v>-42</v>
+        <v>20446</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
       </c>
       <c r="D33">
-        <v>122635</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
       </c>
       <c r="D34">
-        <v>205525</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
+      </c>
+      <c r="D35">
+        <v>31857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36">
+        <v>67201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>2021</v>
+      </c>
+      <c r="D37">
+        <v>78936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="D38">
+        <v>126174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="D35">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>2022</v>
+      </c>
+      <c r="D40">
+        <v>-1777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>2022</v>
+      </c>
+      <c r="D41">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="D42">
+        <v>127214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>2022</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44">
+        <v>-1051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <v>126163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <v>2021</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>2021</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>126163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2021</v>
+      </c>
+      <c r="D55">
+        <v>127214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>2021</v>
+      </c>
+      <c r="D56">
+        <v>321687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>2022</v>
+      </c>
+      <c r="D57">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>2022</v>
+      </c>
+      <c r="D58">
+        <v>-1777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>2021</v>
+      </c>
+      <c r="D60">
+        <v>327681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>2022</v>
+      </c>
+      <c r="D61">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>2022</v>
+      </c>
+      <c r="D62">
+        <v>-1368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>2022</v>
+      </c>
+      <c r="D63">
+        <v>328160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>2021</v>
+      </c>
+      <c r="D64">
+        <v>93738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>2022</v>
+      </c>
+      <c r="D65">
+        <v>14431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>2022</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>2022</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68">
+        <v>2021</v>
+      </c>
+      <c r="D68">
+        <v>108205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69">
+        <v>14472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70">
+        <v>2022</v>
+      </c>
+      <c r="D70">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <v>2022</v>
+      </c>
+      <c r="D71">
+        <v>122635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72">
+        <v>2022</v>
+      </c>
+      <c r="D72">
+        <v>205525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>2021</v>
+      </c>
+      <c r="D73">
         <v>219476</v>
       </c>
     </row>
@@ -6015,7 +8355,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -6029,7 +8369,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -6043,7 +8383,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -6057,7 +8397,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -6071,7 +8411,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -6085,7 +8425,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -6099,7 +8439,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -6113,7 +8453,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
